--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.126568333333333</v>
+        <v>1.093251666666667</v>
       </c>
       <c r="H2">
-        <v>3.379705</v>
+        <v>3.279755</v>
       </c>
       <c r="I2">
-        <v>0.5192288133848593</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="J2">
-        <v>0.5192288133848592</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>26.62734118434055</v>
+        <v>2.097847547093889</v>
       </c>
       <c r="R2">
-        <v>239.646070659065</v>
+        <v>18.880627923845</v>
       </c>
       <c r="S2">
-        <v>0.03545213643206777</v>
+        <v>0.003799381945364469</v>
       </c>
       <c r="T2">
-        <v>0.03545213643206776</v>
+        <v>0.003799381945364469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.126568333333333</v>
+        <v>1.093251666666667</v>
       </c>
       <c r="H3">
-        <v>3.379705</v>
+        <v>3.279755</v>
       </c>
       <c r="I3">
-        <v>0.5192288133848593</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="J3">
-        <v>0.5192288133848592</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>204.2337608770745</v>
+        <v>198.1938359724856</v>
       </c>
       <c r="R3">
-        <v>1838.10384789367</v>
+        <v>1783.74452375237</v>
       </c>
       <c r="S3">
-        <v>0.2719206211586185</v>
+        <v>0.3589460459696062</v>
       </c>
       <c r="T3">
-        <v>0.2719206211586184</v>
+        <v>0.3589460459696062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.126568333333333</v>
+        <v>1.093251666666667</v>
       </c>
       <c r="H4">
-        <v>3.379705</v>
+        <v>3.279755</v>
       </c>
       <c r="I4">
-        <v>0.5192288133848593</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="J4">
-        <v>0.5192288133848592</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>33.95819358335444</v>
+        <v>31.75641619120389</v>
       </c>
       <c r="R4">
-        <v>305.6237422501899</v>
+        <v>285.807745720835</v>
       </c>
       <c r="S4">
-        <v>0.04521256942513109</v>
+        <v>0.05751359506246335</v>
       </c>
       <c r="T4">
-        <v>0.04521256942513108</v>
+        <v>0.05751359506246337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.126568333333333</v>
+        <v>1.093251666666667</v>
       </c>
       <c r="H5">
-        <v>3.379705</v>
+        <v>3.279755</v>
       </c>
       <c r="I5">
-        <v>0.5192288133848593</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="J5">
-        <v>0.5192288133848592</v>
+        <v>0.5823682994676259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>125.1623573151661</v>
+        <v>89.50943941317556</v>
       </c>
       <c r="R5">
-        <v>1126.461215836495</v>
+        <v>805.58495471858</v>
       </c>
       <c r="S5">
-        <v>0.1666434863690419</v>
+        <v>0.1621092764901919</v>
       </c>
       <c r="T5">
-        <v>0.1666434863690419</v>
+        <v>0.1621092764901919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.696542</v>
       </c>
       <c r="I6">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="J6">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>5.487775259445111</v>
+        <v>0.4455329517442222</v>
       </c>
       <c r="R6">
-        <v>49.389977335006</v>
+        <v>4.009796565697999</v>
       </c>
       <c r="S6">
-        <v>0.007306525869762404</v>
+        <v>0.0008068984113106186</v>
       </c>
       <c r="T6">
-        <v>0.007306525869762402</v>
+        <v>0.0008068984113106186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.696542</v>
       </c>
       <c r="I7">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="J7">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>42.0916595587009</v>
@@ -883,10 +883,10 @@
         <v>378.824936028308</v>
       </c>
       <c r="S7">
-        <v>0.05604161703553016</v>
+        <v>0.07623160777306887</v>
       </c>
       <c r="T7">
-        <v>0.05604161703553014</v>
+        <v>0.07623160777306887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.696542</v>
       </c>
       <c r="I8">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="J8">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>6.998630967772889</v>
+        <v>6.744307927468223</v>
       </c>
       <c r="R8">
-        <v>62.98767870995599</v>
+        <v>60.698771347214</v>
       </c>
       <c r="S8">
-        <v>0.009318107211286094</v>
+        <v>0.01221452045411878</v>
       </c>
       <c r="T8">
-        <v>0.00931810721128609</v>
+        <v>0.01221452045411879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.696542</v>
       </c>
       <c r="I9">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="J9">
-        <v>0.1070107231645119</v>
+        <v>0.1236811835176039</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>25.79539891470422</v>
+        <v>19.00967723129689</v>
       </c>
       <c r="R9">
-        <v>232.158590232338</v>
+        <v>171.087095081672</v>
       </c>
       <c r="S9">
-        <v>0.03434447304793323</v>
+        <v>0.03442815687910567</v>
       </c>
       <c r="T9">
-        <v>0.03434447304793323</v>
+        <v>0.03442815687910567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5280146666666666</v>
+        <v>0.5130306666666666</v>
       </c>
       <c r="H10">
-        <v>1.584044</v>
+        <v>1.539092</v>
       </c>
       <c r="I10">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="J10">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>12.48004782636578</v>
+        <v>0.9844577954608887</v>
       </c>
       <c r="R10">
-        <v>112.320430437292</v>
+        <v>8.860120159147998</v>
       </c>
       <c r="S10">
-        <v>0.01661616738809995</v>
+        <v>0.0017829375538889</v>
       </c>
       <c r="T10">
-        <v>0.01661616738809995</v>
+        <v>0.0017829375538889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5280146666666666</v>
+        <v>0.5130306666666666</v>
       </c>
       <c r="H11">
-        <v>1.584044</v>
+        <v>1.539092</v>
       </c>
       <c r="I11">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="J11">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>95.72292952040623</v>
+        <v>93.00650426466756</v>
       </c>
       <c r="R11">
-        <v>861.5063656836561</v>
+        <v>837.058538382008</v>
       </c>
       <c r="S11">
-        <v>0.12744728561297</v>
+        <v>0.1684427610548511</v>
       </c>
       <c r="T11">
-        <v>0.1274472856129699</v>
+        <v>0.1684427610548511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5280146666666666</v>
+        <v>0.5130306666666666</v>
       </c>
       <c r="H12">
-        <v>1.584044</v>
+        <v>1.539092</v>
       </c>
       <c r="I12">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="J12">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>15.91596686591022</v>
+        <v>14.90234670228489</v>
       </c>
       <c r="R12">
-        <v>143.243701793192</v>
+        <v>134.121120320564</v>
       </c>
       <c r="S12">
-        <v>0.02119081379068953</v>
+        <v>0.02698942879936972</v>
       </c>
       <c r="T12">
-        <v>0.02119081379068953</v>
+        <v>0.02698942879936973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5280146666666666</v>
+        <v>0.5130306666666666</v>
       </c>
       <c r="H13">
-        <v>1.584044</v>
+        <v>1.539092</v>
       </c>
       <c r="I13">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="J13">
-        <v>0.243358898622633</v>
+        <v>0.2732882153588385</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>58.66271793867955</v>
+        <v>42.00413205416355</v>
       </c>
       <c r="R13">
-        <v>527.9644614481159</v>
+        <v>378.037188487472</v>
       </c>
       <c r="S13">
-        <v>0.07810463183087359</v>
+        <v>0.07607308795072874</v>
       </c>
       <c r="T13">
-        <v>0.07810463183087359</v>
+        <v>0.07607308795072874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2829316666666666</v>
+        <v>0.03878833333333333</v>
       </c>
       <c r="H14">
-        <v>0.848795</v>
+        <v>0.116365</v>
       </c>
       <c r="I14">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="J14">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>6.68731562682611</v>
+        <v>0.07443117849277778</v>
       </c>
       <c r="R14">
-        <v>60.185840641435</v>
+        <v>0.669880606435</v>
       </c>
       <c r="S14">
-        <v>0.008903616186281629</v>
+        <v>0.0001348012519448363</v>
       </c>
       <c r="T14">
-        <v>0.008903616186281629</v>
+        <v>0.0001348012519448363</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2829316666666666</v>
+        <v>0.03878833333333333</v>
       </c>
       <c r="H15">
-        <v>0.848795</v>
+        <v>0.116365</v>
       </c>
       <c r="I15">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="J15">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>51.29222670725889</v>
+        <v>7.031874552501112</v>
       </c>
       <c r="R15">
-        <v>461.63004036533</v>
+        <v>63.28687097251001</v>
       </c>
       <c r="S15">
-        <v>0.06829142296038547</v>
+        <v>0.01273532829106236</v>
       </c>
       <c r="T15">
-        <v>0.06829142296038546</v>
+        <v>0.01273532829106236</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2829316666666666</v>
+        <v>0.03878833333333333</v>
       </c>
       <c r="H16">
-        <v>0.848795</v>
+        <v>0.116365</v>
       </c>
       <c r="I16">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="J16">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>8.528420356978888</v>
+        <v>1.126710797022778</v>
       </c>
       <c r="R16">
-        <v>76.75578321280999</v>
+        <v>10.140397173205</v>
       </c>
       <c r="S16">
-        <v>0.01135489720706516</v>
+        <v>0.002040569947890482</v>
       </c>
       <c r="T16">
-        <v>0.01135489720706516</v>
+        <v>0.002040569947890483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2829316666666666</v>
+        <v>0.03878833333333333</v>
       </c>
       <c r="H17">
-        <v>0.848795</v>
+        <v>0.116365</v>
       </c>
       <c r="I17">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="J17">
-        <v>0.1304015648279958</v>
+        <v>0.02066230165593171</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>31.43386274166722</v>
+        <v>3.175775604371111</v>
       </c>
       <c r="R17">
-        <v>282.904764675005</v>
+        <v>28.58198043934</v>
       </c>
       <c r="S17">
-        <v>0.04185162847426355</v>
+        <v>0.005751602165034027</v>
       </c>
       <c r="T17">
-        <v>0.04185162847426355</v>
+        <v>0.005751602165034027</v>
       </c>
     </row>
   </sheetData>
